--- a/TemperatureData/St.Albans-N/0501.xlsx
+++ b/TemperatureData/St.Albans-N/0501.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/FieldWork2022/HoboLoggerData/St.Albans-N/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\St.Albans-N\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D3C26F45-076B-47BD-8233-7ADA6FB4F826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5576EB2D-F925-4634-885C-F48EA0B38BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="18000" windowHeight="9360" activeTab="1"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0501" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Plot Title: 21422128</t>
   </si>
@@ -50,9 +50,6 @@
     <t>End Of File (LGR S/N: 21422128)</t>
   </si>
   <si>
-    <t>Logged</t>
-  </si>
-  <si>
     <t>#Logger data from St. Albans Reservoir-N</t>
   </si>
   <si>
@@ -67,11 +64,14 @@
   <si>
     <t>#Pond ID:01</t>
   </si>
+  <si>
+    <t>#All data after retrieval date/time was deleted</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -611,9 +611,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -651,7 +651,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -757,7 +757,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -899,17 +899,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5590"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5562"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5549" workbookViewId="0">
+      <selection activeCell="B5555" sqref="B5555"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -78787,429 +78789,48 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5563" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5563">
-        <v>5561</v>
-      </c>
-      <c r="B5563" s="1">
-        <v>44778.416666666664</v>
-      </c>
-      <c r="C5563">
-        <v>77.923000000000002</v>
-      </c>
-      <c r="D5563">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5564" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5564">
-        <v>5562</v>
-      </c>
-      <c r="B5564" s="1">
-        <v>44778.427083333336</v>
-      </c>
-      <c r="C5564">
-        <v>76.528000000000006</v>
-      </c>
-      <c r="D5564">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5565" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5565">
-        <v>5563</v>
-      </c>
-      <c r="B5565" s="1">
-        <v>44778.4375</v>
-      </c>
-      <c r="C5565">
-        <v>75.659000000000006</v>
-      </c>
-      <c r="D5565">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5566" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5566">
-        <v>5564</v>
-      </c>
-      <c r="B5566" s="1">
-        <v>44778.447916666664</v>
-      </c>
-      <c r="C5566">
-        <v>75.311999999999998</v>
-      </c>
-      <c r="D5566">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5567" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5567">
-        <v>5565</v>
-      </c>
-      <c r="B5567" s="1">
-        <v>44778.458333333336</v>
-      </c>
-      <c r="C5567">
-        <v>75.311999999999998</v>
-      </c>
-      <c r="D5567">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5568" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5568">
-        <v>5566</v>
-      </c>
-      <c r="B5568" s="1">
-        <v>44778.46875</v>
-      </c>
-      <c r="C5568">
-        <v>75.483999999999995</v>
-      </c>
-      <c r="D5568">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5569" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5569">
-        <v>5567</v>
-      </c>
-      <c r="B5569" s="1">
-        <v>44778.479166666664</v>
-      </c>
-      <c r="C5569">
-        <v>75.483999999999995</v>
-      </c>
-      <c r="D5569">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5570" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5570">
-        <v>5568</v>
-      </c>
-      <c r="B5570" s="1">
-        <v>44778.489583333336</v>
-      </c>
-      <c r="C5570">
-        <v>75.311999999999998</v>
-      </c>
-      <c r="D5570">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5571" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5571">
-        <v>5569</v>
-      </c>
-      <c r="B5571" s="1">
-        <v>44778.5</v>
-      </c>
-      <c r="C5571">
-        <v>76.006</v>
-      </c>
-      <c r="D5571">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5572" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5572">
-        <v>5570</v>
-      </c>
-      <c r="B5572" s="1">
-        <v>44778.510416666664</v>
-      </c>
-      <c r="C5572">
-        <v>76.180999999999997</v>
-      </c>
-      <c r="D5572">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5573" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5573">
-        <v>5571</v>
-      </c>
-      <c r="B5573" s="1">
-        <v>44778.520833333336</v>
-      </c>
-      <c r="C5573">
-        <v>76.528000000000006</v>
-      </c>
-      <c r="D5573">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5574" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5574">
-        <v>5572</v>
-      </c>
-      <c r="B5574" s="1">
-        <v>44778.53125</v>
-      </c>
-      <c r="C5574">
-        <v>76.876000000000005</v>
-      </c>
-      <c r="D5574">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5575" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5575">
-        <v>5573</v>
-      </c>
-      <c r="B5575" s="1">
-        <v>44778.541666666664</v>
-      </c>
-      <c r="C5575">
-        <v>78.097999999999999</v>
-      </c>
-      <c r="D5575">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5576" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5576">
-        <v>5574</v>
-      </c>
-      <c r="B5576" s="1">
-        <v>44778.552083333336</v>
-      </c>
-      <c r="C5576">
-        <v>80.382000000000005</v>
-      </c>
-      <c r="D5576">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5577" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5577">
-        <v>5575</v>
-      </c>
-      <c r="B5577" s="1">
-        <v>44778.5625</v>
-      </c>
-      <c r="C5577">
-        <v>81.620999999999995</v>
-      </c>
-      <c r="D5577">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5578" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5578">
-        <v>5576</v>
-      </c>
-      <c r="B5578" s="1">
-        <v>44778.572916666664</v>
-      </c>
-      <c r="C5578">
-        <v>83.399000000000001</v>
-      </c>
-      <c r="D5578">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5579" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5579">
-        <v>5577</v>
-      </c>
-      <c r="B5579" s="1">
-        <v>44778.583333333336</v>
-      </c>
-      <c r="C5579">
-        <v>83.578999999999994</v>
-      </c>
-      <c r="D5579">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5580" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5580">
-        <v>5578</v>
-      </c>
-      <c r="B5580" s="1">
-        <v>44778.59375</v>
-      </c>
-      <c r="C5580">
-        <v>82.864000000000004</v>
-      </c>
-      <c r="D5580">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5581" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5581">
-        <v>5579</v>
-      </c>
-      <c r="B5581" s="1">
-        <v>44778.604166666664</v>
-      </c>
-      <c r="C5581">
-        <v>83.221000000000004</v>
-      </c>
-      <c r="D5581">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5582" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5582">
-        <v>5580</v>
-      </c>
-      <c r="B5582" s="1">
-        <v>44778.614583333336</v>
-      </c>
-      <c r="C5582">
-        <v>84.114999999999995</v>
-      </c>
-      <c r="D5582">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5583" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5583">
-        <v>5581</v>
-      </c>
-      <c r="B5583" s="1">
-        <v>44778.625</v>
-      </c>
-      <c r="C5583">
-        <v>83.399000000000001</v>
-      </c>
-      <c r="D5583">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5584" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5584">
-        <v>5582</v>
-      </c>
-      <c r="B5584" s="1">
-        <v>44778.635416666664</v>
-      </c>
-      <c r="C5584">
-        <v>83.578999999999994</v>
-      </c>
-      <c r="D5584">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5585" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5585">
-        <v>5583</v>
-      </c>
-      <c r="B5585" s="1">
-        <v>44778.645833333336</v>
-      </c>
-      <c r="C5585">
-        <v>82.33</v>
-      </c>
-      <c r="D5585">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5586" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5586">
-        <v>5584</v>
-      </c>
-      <c r="B5586" s="1">
-        <v>44778.65625</v>
-      </c>
-      <c r="C5586">
-        <v>81.09</v>
-      </c>
-      <c r="D5586">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5587">
-        <v>5585</v>
-      </c>
-      <c r="B5587" s="1">
-        <v>44778.666666666664</v>
-      </c>
-      <c r="C5587">
-        <v>78.974999999999994</v>
-      </c>
-      <c r="D5587">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5588" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5588">
-        <v>5586</v>
-      </c>
-      <c r="B5588" s="1">
-        <v>44778.671458333331</v>
-      </c>
-      <c r="E5588" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5589" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5589">
-        <v>5587</v>
-      </c>
-      <c r="B5589" s="1">
-        <v>44778.671481481484</v>
-      </c>
-      <c r="F5589" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5590" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5590">
-        <v>5588</v>
-      </c>
-      <c r="B5590" s="1">
-        <v>44778.671851851854</v>
-      </c>
-      <c r="G5590" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5590" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -79446,15 +79067,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -79465,14 +79077,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4690CAF3-DBB5-477A-A2B6-8F714C747A97}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4690CAF3-DBB5-477A-A2B6-8F714C747A97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EDADEEE-CFBE-4294-8FC4-F95A53344D8E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFA35F33-01A8-41AF-899A-F8E1F47FC194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFA35F33-01A8-41AF-899A-F8E1F47FC194}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EDADEEE-CFBE-4294-8FC4-F95A53344D8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>